--- a/xlsx/原住民_intext.xlsx
+++ b/xlsx/原住民_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="148">
   <si>
     <t>原住民</t>
   </si>
@@ -29,7 +29,7 @@
     <t>原居民 (消歧义)</t>
   </si>
   <si>
-    <t>政策_政策_美國_原住民</t>
+    <t>政策_政策_美国_原住民</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%8F%E7%BE%A4</t>
@@ -47,7 +47,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%8C%E6%AC%A1%E5%A4%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>二次大戰</t>
+    <t>二次大战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E7%B1%BB%E5%AD%A6</t>
@@ -71,13 +71,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%B3%95</t>
   </si>
   <si>
-    <t>國際法</t>
+    <t>国际法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E6%97%8F%E8%87%AA%E6%B1%BA</t>
   </si>
   <si>
-    <t>民族自決</t>
+    <t>民族自决</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E6%B9%BE%E5%8E%9F%E4%BD%8F%E6%B0%91%E6%97%8F</t>
@@ -125,13 +125,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A8%AE%E6%97%8F%E6%BB%85%E7%B5%95</t>
   </si>
   <si>
-    <t>種族滅絕</t>
+    <t>种族灭绝</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E5%8C%96%E6%BB%85%E7%B5%95</t>
   </si>
   <si>
-    <t>文化滅絕</t>
+    <t>文化灭绝</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E6%B4%B2</t>
@@ -143,19 +143,16 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3%E5%8E%9F%E4%BD%8F%E6%B0%91%E6%97%8F</t>
   </si>
   <si>
-    <t>臺灣原住民族</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B%E6%94%BF%E5%BA%9C</t>
   </si>
   <si>
-    <t>中華民國政府</t>
+    <t>中华民国政府</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3%E6%9C%AA%E8%AD%98%E5%88%A5%E6%B0%91%E6%97%8F</t>
   </si>
   <si>
-    <t>台灣未識別民族</t>
+    <t>台湾未识别民族</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E5%8E%9F%E5%B1%85%E6%B0%91</t>
@@ -233,7 +230,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BE%85%E5%A8%81%E4%BA%BA</t>
   </si>
   <si>
-    <t>科羅威人</t>
+    <t>科罗威人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E6%A0%BC%E5%88%A9%E9%99%80%E4%BA%BA</t>
@@ -281,9 +278,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%91%AA%E9%9B%85%E4%BA%BA</t>
   </si>
   <si>
-    <t>瑪雅人</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%8A%A0%E4%BA%BA</t>
   </si>
   <si>
@@ -293,7 +287,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2</t>
   </si>
   <si>
-    <t>歐洲</t>
+    <t>欧洲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E5%B0%94%E7%89%B9%E4%BA%BA</t>
@@ -305,19 +299,16 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E6%AD%90%E6%B0%91%E6%97%8F</t>
   </si>
   <si>
-    <t>印歐民族</t>
+    <t>印欧民族</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E7%B1%B3%E4%BA%BA</t>
   </si>
   <si>
-    <t>薩米人</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E6%99%AE%E8%98%AD</t>
   </si>
   <si>
-    <t>拉普蘭</t>
+    <t>拉普兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%85%B8</t>
@@ -335,19 +326,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8A%AC%E8%98%AD</t>
   </si>
   <si>
-    <t>芬蘭</t>
+    <t>芬兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BE%85%E6%96%AF</t>
   </si>
   <si>
-    <t>俄羅斯</t>
+    <t>俄罗斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E6%8B%89%E5%8D%8A%E5%B3%B6</t>
   </si>
   <si>
-    <t>科拉半島</t>
+    <t>科拉半岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9A%AE%E5%85%8B%E7%89%B9%E4%BA%BA</t>
@@ -359,7 +350,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E6%A0%BC%E8%98%AD</t>
   </si>
   <si>
-    <t>蘇格蘭</t>
+    <t>苏格兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%96%AF%E5%85%8B%E4%BA%BA</t>
@@ -383,7 +374,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E7%88%BE%E5%B9%B9%E5%8D%8A%E5%B3%B6</t>
   </si>
   <si>
-    <t>巴爾幹半島</t>
+    <t>巴尔干半岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E5%88%A9%E9%87%8C%E4%BA%9A</t>
@@ -425,7 +416,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%A5%BF%E8%98%AD</t>
   </si>
   <si>
-    <t>新西蘭</t>
+    <t>新西兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%A5%E8%8E%AB%E7%BD%97%E4%BA%BA</t>
@@ -455,13 +446,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E8%A9%9E%E5%85%B8</t>
   </si>
   <si>
-    <t>維基詞典</t>
+    <t>维基词典</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -1418,7 +1409,7 @@
         <v>41</v>
       </c>
       <c r="F21" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
@@ -1444,10 +1435,10 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" t="s">
         <v>43</v>
-      </c>
-      <c r="F22" t="s">
-        <v>44</v>
       </c>
       <c r="G22" t="n">
         <v>1</v>
@@ -1473,10 +1464,10 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
         <v>45</v>
-      </c>
-      <c r="F23" t="s">
-        <v>46</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
@@ -1502,10 +1493,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" t="s">
         <v>47</v>
-      </c>
-      <c r="F24" t="s">
-        <v>48</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -1531,10 +1522,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" t="s">
         <v>49</v>
-      </c>
-      <c r="F25" t="s">
-        <v>50</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
@@ -1560,10 +1551,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" t="s">
         <v>51</v>
-      </c>
-      <c r="F26" t="s">
-        <v>52</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -1589,10 +1580,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" t="s">
         <v>53</v>
-      </c>
-      <c r="F27" t="s">
-        <v>54</v>
       </c>
       <c r="G27" t="n">
         <v>2</v>
@@ -1618,10 +1609,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" t="s">
         <v>55</v>
-      </c>
-      <c r="F28" t="s">
-        <v>56</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -1647,10 +1638,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" t="s">
         <v>57</v>
-      </c>
-      <c r="F29" t="s">
-        <v>58</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -1676,10 +1667,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F30" t="s">
         <v>59</v>
-      </c>
-      <c r="F30" t="s">
-        <v>60</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -1705,10 +1696,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" t="s">
         <v>61</v>
-      </c>
-      <c r="F31" t="s">
-        <v>62</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -1734,10 +1725,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>62</v>
+      </c>
+      <c r="F32" t="s">
         <v>63</v>
-      </c>
-      <c r="F32" t="s">
-        <v>64</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -1763,10 +1754,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>64</v>
+      </c>
+      <c r="F33" t="s">
         <v>65</v>
-      </c>
-      <c r="F33" t="s">
-        <v>66</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -1792,10 +1783,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34" t="s">
         <v>67</v>
-      </c>
-      <c r="F34" t="s">
-        <v>68</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -1821,10 +1812,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>68</v>
+      </c>
+      <c r="F35" t="s">
         <v>69</v>
-      </c>
-      <c r="F35" t="s">
-        <v>70</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -1850,10 +1841,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>70</v>
+      </c>
+      <c r="F36" t="s">
         <v>71</v>
-      </c>
-      <c r="F36" t="s">
-        <v>72</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -1879,10 +1870,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>72</v>
+      </c>
+      <c r="F37" t="s">
         <v>73</v>
-      </c>
-      <c r="F37" t="s">
-        <v>74</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -1908,10 +1899,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>74</v>
+      </c>
+      <c r="F38" t="s">
         <v>75</v>
-      </c>
-      <c r="F38" t="s">
-        <v>76</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -1937,10 +1928,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>76</v>
+      </c>
+      <c r="F39" t="s">
         <v>77</v>
-      </c>
-      <c r="F39" t="s">
-        <v>78</v>
       </c>
       <c r="G39" t="n">
         <v>2</v>
@@ -1966,10 +1957,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>78</v>
+      </c>
+      <c r="F40" t="s">
         <v>79</v>
-      </c>
-      <c r="F40" t="s">
-        <v>80</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -1995,10 +1986,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>80</v>
+      </c>
+      <c r="F41" t="s">
         <v>81</v>
-      </c>
-      <c r="F41" t="s">
-        <v>82</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -2024,10 +2015,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>82</v>
+      </c>
+      <c r="F42" t="s">
         <v>83</v>
-      </c>
-      <c r="F42" t="s">
-        <v>84</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -2053,10 +2044,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>84</v>
+      </c>
+      <c r="F43" t="s">
         <v>85</v>
-      </c>
-      <c r="F43" t="s">
-        <v>86</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -2082,10 +2073,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F44" t="s">
-        <v>88</v>
+        <v>32</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -2111,10 +2102,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F45" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -2140,10 +2131,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F46" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G46" t="n">
         <v>2</v>
@@ -2169,10 +2160,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F47" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -2198,10 +2189,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F48" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G48" t="n">
         <v>2</v>
@@ -2227,10 +2218,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F49" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -2256,10 +2247,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F50" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -2285,10 +2276,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F51" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -2314,10 +2305,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F52" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -2343,10 +2334,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F53" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -2372,10 +2363,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F54" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -2401,10 +2392,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F55" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -2430,10 +2421,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F56" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -2459,10 +2450,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F57" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -2488,10 +2479,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F58" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -2517,10 +2508,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F59" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G59" t="n">
         <v>2</v>
@@ -2546,10 +2537,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F60" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -2575,10 +2566,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F61" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -2604,10 +2595,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F62" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G62" t="n">
         <v>2</v>
@@ -2633,10 +2624,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F63" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -2662,10 +2653,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F64" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -2691,10 +2682,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F65" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -2720,10 +2711,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F66" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -2749,10 +2740,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F67" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -2778,10 +2769,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F68" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -2807,10 +2798,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F69" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -2836,10 +2827,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F70" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G70" t="n">
         <v>4</v>
@@ -2865,10 +2856,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F71" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G71" t="n">
         <v>4</v>
@@ -2894,10 +2885,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F72" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -2923,10 +2914,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F73" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -2952,10 +2943,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F74" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G74" t="n">
         <v>3</v>
@@ -2981,10 +2972,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F75" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>

--- a/xlsx/原住民_intext.xlsx
+++ b/xlsx/原住民_intext.xlsx
@@ -29,7 +29,7 @@
     <t>原居民 (消歧义)</t>
   </si>
   <si>
-    <t>政策_政策_美國_原住民</t>
+    <t>体育运动_体育运动_袋棍球_原住民</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%8F%E7%BE%A4</t>
